--- a/dados_gerais/Tabela_1.03.xlsx
+++ b/dados_gerais/Tabela_1.03.xlsx
@@ -1,145 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\Anuário2020_roberto\anuario2020\dados_gerais\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
-    <t xml:space="preserve">Unidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graduação.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos_Graduação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mestr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dout.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graduação.y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mestrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doutorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IdA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IREL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Graduação.x</t>
+  </si>
+  <si>
+    <t>Pos_Graduação</t>
+  </si>
+  <si>
+    <t>Grad.</t>
+  </si>
+  <si>
+    <t>Mestr.</t>
+  </si>
+  <si>
+    <t>Dout.</t>
+  </si>
+  <si>
+    <t>Graduação.y</t>
+  </si>
+  <si>
+    <t>Mestrado</t>
+  </si>
+  <si>
+    <t>Doutorado</t>
+  </si>
+  <si>
+    <t>CET</t>
+  </si>
+  <si>
+    <t>FAC</t>
+  </si>
+  <si>
+    <t>FACE</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>FAV</t>
+  </si>
+  <si>
+    <t>FCE</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>FEF</t>
+  </si>
+  <si>
+    <t>FGA</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>FUP</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>ICS</t>
+  </si>
+  <si>
+    <t>IdA</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>IPOL</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>IREL</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>CDT</t>
+  </si>
+  <si>
+    <t>CEAM</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,6 +181,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -456,14 +471,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,877 +514,907 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>352</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2" t="n">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>22</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="I2"/>
-    </row>
-    <row r="3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1178</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>107</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>187</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>26</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3392</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>587</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>445</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>102</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>38</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>956</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>243</v>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>124</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>37</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1535</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>212</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>181</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>49</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2594</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>163</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>324</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>34</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>956</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>89</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>127</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1373</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>230</v>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>210</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>44</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1145</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>408</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>192</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>94</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>31</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>893</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>166</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>117</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>21</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2587</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>59</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" t="n">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>186</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="I12"/>
-    </row>
-    <row r="13">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>545</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>197</v>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>78</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>35</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>17</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1995</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>798</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>8</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>276</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>141</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>60</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3584</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>941</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>9</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>439</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>152</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>69</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1149</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>209</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>128</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>46</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1159</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>536</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>9</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>178</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>108</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>850</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>304</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>133</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>47</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>41</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1701</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>279</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>23</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
         <v>227</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>75</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>14</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2021</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>404</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
         <v>150</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>94</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>477</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>137</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>39</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>27</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>832</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>215</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
         <v>75</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>38</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>17</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2679</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>522</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>14</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>5</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>5</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>318</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>83</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>28</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>3078</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>528</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>19</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
         <v>421</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>97</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>58</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>641</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>402</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>241</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>76</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>34</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>449</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>101</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>83</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>15</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1101</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>235</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>131</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>44</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>33</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>477</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>56</v>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
         <v>93</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>5</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>12</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29"/>
-      <c r="C29" t="n">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>121</v>
       </c>
-      <c r="D29"/>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29" t="n">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>21</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>11</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30"/>
-      <c r="C30" t="n">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>56</v>
       </c>
-      <c r="D30"/>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30" t="n">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>24</v>
       </c>
-      <c r="I30"/>
-    </row>
-    <row r="31">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31"/>
-      <c r="C31" t="n">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>121</v>
       </c>
-      <c r="D31"/>
-      <c r="E31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31" t="n">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>39</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>39699</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>8429</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>149</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>93</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>72</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>5125</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>1613</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>679</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>